--- a/Teams/Chelsea_stats.xlsx
+++ b/Teams/Chelsea_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-138</t>
+          <t>23-139</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-318</t>
+          <t>22-319</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-022</t>
+          <t>22-023</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-241</t>
+          <t>26-242</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-062</t>
+          <t>24-063</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-122</t>
+          <t>27-123</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-273</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21-305</t>
+          <t>21-306</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-011</t>
+          <t>25-012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-360</t>
+          <t>24-361</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-093</t>
+          <t>24-094</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-177</t>
+          <t>27-178</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-102</t>
+          <t>25-103</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-339</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-130</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-359</t>
+          <t>23-360</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-319</t>
+          <t>18-320</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-195</t>
+          <t>26-196</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-234</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-074</t>
+          <t>24-075</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-044</t>
+          <t>19-045</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-075</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-061</t>
+          <t>19-062</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-151</t>
+          <t>17-152</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-138</t>
+          <t>23-139</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-318</t>
+          <t>22-319</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-022</t>
+          <t>22-023</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-241</t>
+          <t>26-242</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-062</t>
+          <t>24-063</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-122</t>
+          <t>27-123</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8654,7 +8654,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-273</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21-305</t>
+          <t>21-306</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-011</t>
+          <t>25-012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-360</t>
+          <t>24-361</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-093</t>
+          <t>24-094</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-177</t>
+          <t>27-178</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-102</t>
+          <t>25-103</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-339</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-130</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-359</t>
+          <t>23-360</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-319</t>
+          <t>18-320</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-195</t>
+          <t>26-196</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-234</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -10760,7 +10760,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-074</t>
+          <t>24-075</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-044</t>
+          <t>19-045</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10994,7 +10994,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-075</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-061</t>
+          <t>19-062</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-151</t>
+          <t>17-152</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -11345,7 +11345,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-325</t>
+          <t>19-326</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>17-313</t>
+          <t>17-314</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>32-300</t>
+          <t>32-301</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>22-069</t>
+          <t>22-070</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>19-358</t>
+          <t>19-359</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -11660,7 +11660,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18-288</t>
+          <t>18-289</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -12135,7 +12135,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-138</t>
+          <t>23-139</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-318</t>
+          <t>22-319</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -12303,7 +12303,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-022</t>
+          <t>22-023</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-241</t>
+          <t>26-242</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-062</t>
+          <t>24-063</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -12555,7 +12555,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-122</t>
+          <t>27-123</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12629,7 +12629,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-273</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21-305</t>
+          <t>21-306</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-011</t>
+          <t>25-012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12965,7 +12965,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-360</t>
+          <t>24-361</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-093</t>
+          <t>24-094</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-177</t>
+          <t>27-178</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -13215,7 +13215,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -13299,7 +13299,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-102</t>
+          <t>25-103</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-339</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-130</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-359</t>
+          <t>23-360</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-319</t>
+          <t>18-320</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13945,7 +13945,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-195</t>
+          <t>26-196</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-234</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-074</t>
+          <t>24-075</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-044</t>
+          <t>19-045</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -14277,7 +14277,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-075</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-061</t>
+          <t>19-062</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -14425,7 +14425,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-151</t>
+          <t>17-152</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -14928,7 +14928,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-138</t>
+          <t>23-139</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -15030,7 +15030,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-318</t>
+          <t>22-319</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -15132,7 +15132,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-022</t>
+          <t>22-023</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-241</t>
+          <t>26-242</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -15336,7 +15336,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-062</t>
+          <t>24-063</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-122</t>
+          <t>27-123</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-273</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -15642,7 +15642,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21-305</t>
+          <t>21-306</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -15846,7 +15846,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-011</t>
+          <t>25-012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-360</t>
+          <t>24-361</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-093</t>
+          <t>24-094</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -16152,7 +16152,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-177</t>
+          <t>27-178</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -16356,7 +16356,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-102</t>
+          <t>25-103</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -16458,7 +16458,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -16560,7 +16560,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-339</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -16662,7 +16662,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -16764,7 +16764,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -16866,7 +16866,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-130</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-359</t>
+          <t>23-360</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -17070,7 +17070,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-319</t>
+          <t>18-320</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-195</t>
+          <t>26-196</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17274,7 +17274,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-234</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-074</t>
+          <t>24-075</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-044</t>
+          <t>19-045</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -17580,7 +17580,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-075</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -17680,7 +17680,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-061</t>
+          <t>19-062</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-151</t>
+          <t>17-152</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -18252,7 +18252,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-138</t>
+          <t>23-139</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -18330,7 +18330,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-318</t>
+          <t>22-319</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-022</t>
+          <t>22-023</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -18486,7 +18486,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-241</t>
+          <t>26-242</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-062</t>
+          <t>24-063</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -18642,7 +18642,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-122</t>
+          <t>27-123</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -18720,7 +18720,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-273</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -18798,7 +18798,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -18876,7 +18876,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21-305</t>
+          <t>21-306</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -18954,7 +18954,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-011</t>
+          <t>25-012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-360</t>
+          <t>24-361</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-093</t>
+          <t>24-094</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19188,7 +19188,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-177</t>
+          <t>27-178</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19266,7 +19266,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -19344,7 +19344,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-102</t>
+          <t>25-103</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -19500,7 +19500,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-339</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -19578,7 +19578,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -19656,7 +19656,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -19734,7 +19734,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-130</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-359</t>
+          <t>23-360</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-319</t>
+          <t>18-320</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -19968,7 +19968,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-195</t>
+          <t>26-196</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -20046,7 +20046,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-234</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -20124,7 +20124,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-074</t>
+          <t>24-075</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -20202,7 +20202,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-044</t>
+          <t>19-045</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -20280,7 +20280,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-075</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -20358,7 +20358,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-061</t>
+          <t>19-062</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -20436,7 +20436,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-151</t>
+          <t>17-152</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -20848,7 +20848,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-138</t>
+          <t>23-139</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -20929,7 +20929,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-318</t>
+          <t>22-319</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -21010,7 +21010,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-022</t>
+          <t>22-023</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-241</t>
+          <t>26-242</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -21172,7 +21172,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-062</t>
+          <t>24-063</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -21253,7 +21253,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-122</t>
+          <t>27-123</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-273</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -21415,7 +21415,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21-305</t>
+          <t>21-306</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21577,7 +21577,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-011</t>
+          <t>25-012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -21658,7 +21658,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-360</t>
+          <t>24-361</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -21739,7 +21739,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-093</t>
+          <t>24-094</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -21820,7 +21820,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-177</t>
+          <t>27-178</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -21901,7 +21901,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-102</t>
+          <t>25-103</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -22063,7 +22063,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -22144,7 +22144,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-339</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -22225,7 +22225,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -22306,7 +22306,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -22387,7 +22387,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-130</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22468,7 +22468,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-359</t>
+          <t>23-360</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22549,7 +22549,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-319</t>
+          <t>18-320</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -22630,7 +22630,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-195</t>
+          <t>26-196</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -22711,7 +22711,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-234</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-074</t>
+          <t>24-075</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -22873,7 +22873,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-044</t>
+          <t>19-045</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -22954,7 +22954,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-075</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -23035,7 +23035,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-061</t>
+          <t>19-062</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -23116,7 +23116,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-151</t>
+          <t>17-152</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -23550,7 +23550,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-138</t>
+          <t>23-139</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -23631,7 +23631,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-318</t>
+          <t>22-319</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -23712,7 +23712,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-022</t>
+          <t>22-023</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-241</t>
+          <t>26-242</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -23874,7 +23874,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-062</t>
+          <t>24-063</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -23955,7 +23955,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-122</t>
+          <t>27-123</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -24036,7 +24036,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-273</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -24198,7 +24198,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21-305</t>
+          <t>21-306</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -24279,7 +24279,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-011</t>
+          <t>25-012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -24360,7 +24360,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-360</t>
+          <t>24-361</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -24441,7 +24441,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-093</t>
+          <t>24-094</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-177</t>
+          <t>27-178</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -24603,7 +24603,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -24684,7 +24684,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-102</t>
+          <t>25-103</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -24765,7 +24765,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -24846,7 +24846,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-339</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -24925,7 +24925,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -25006,7 +25006,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -25087,7 +25087,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-130</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -25168,7 +25168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-359</t>
+          <t>23-360</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -25249,7 +25249,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-319</t>
+          <t>18-320</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -25330,7 +25330,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-195</t>
+          <t>26-196</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -25411,7 +25411,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-234</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-074</t>
+          <t>24-075</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -25571,7 +25571,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-044</t>
+          <t>19-045</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -25652,7 +25652,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-075</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -25733,7 +25733,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-061</t>
+          <t>19-062</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -25812,7 +25812,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-151</t>
+          <t>17-152</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -26267,7 +26267,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-138</t>
+          <t>23-139</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -26366,7 +26366,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-318</t>
+          <t>22-319</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -26465,7 +26465,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-022</t>
+          <t>22-023</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -26564,7 +26564,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-241</t>
+          <t>26-242</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-062</t>
+          <t>24-063</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -26762,7 +26762,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-122</t>
+          <t>27-123</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -26857,7 +26857,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-273</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -27055,7 +27055,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21-305</t>
+          <t>21-306</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -27154,7 +27154,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-011</t>
+          <t>25-012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -27253,7 +27253,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-360</t>
+          <t>24-361</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -27352,7 +27352,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-093</t>
+          <t>24-094</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -27451,7 +27451,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-177</t>
+          <t>27-178</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -27550,7 +27550,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -27649,7 +27649,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-102</t>
+          <t>25-103</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -27748,7 +27748,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -27847,7 +27847,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-339</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -27942,7 +27942,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -28041,7 +28041,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -28140,7 +28140,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-130</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -28239,7 +28239,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-359</t>
+          <t>23-360</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -28338,7 +28338,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-319</t>
+          <t>18-320</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -28437,7 +28437,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-195</t>
+          <t>26-196</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -28536,7 +28536,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-234</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-074</t>
+          <t>24-075</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -28734,7 +28734,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-044</t>
+          <t>19-045</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -28833,7 +28833,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-075</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -28932,7 +28932,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-061</t>
+          <t>19-062</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -29027,7 +29027,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-151</t>
+          <t>17-152</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -29571,7 +29571,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-138</t>
+          <t>23-139</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -29688,7 +29688,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-318</t>
+          <t>22-319</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -29805,7 +29805,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-022</t>
+          <t>22-023</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -29922,7 +29922,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-241</t>
+          <t>26-242</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -30039,7 +30039,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-062</t>
+          <t>24-063</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -30156,7 +30156,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-122</t>
+          <t>27-123</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -30273,7 +30273,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-273</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -30390,7 +30390,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23-010</t>
+          <t>23-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -30507,7 +30507,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21-305</t>
+          <t>21-306</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -30624,7 +30624,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-011</t>
+          <t>25-012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -30741,7 +30741,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-360</t>
+          <t>24-361</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -30858,7 +30858,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-093</t>
+          <t>24-094</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-177</t>
+          <t>27-178</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -31092,7 +31092,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -31209,7 +31209,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-102</t>
+          <t>25-103</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -31326,7 +31326,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21-073</t>
+          <t>21-074</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -31443,7 +31443,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-339</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -31560,7 +31560,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27-009</t>
+          <t>27-010</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -31677,7 +31677,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -31794,7 +31794,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-130</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -31911,7 +31911,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-359</t>
+          <t>23-360</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -32028,7 +32028,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-319</t>
+          <t>18-320</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-195</t>
+          <t>26-196</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -32262,7 +32262,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-234</t>
+          <t>21-235</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -32379,7 +32379,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-074</t>
+          <t>24-075</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -32496,7 +32496,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-044</t>
+          <t>19-045</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -32613,7 +32613,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-075</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -32730,7 +32730,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-061</t>
+          <t>19-062</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -32847,7 +32847,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-151</t>
+          <t>17-152</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -32964,7 +32964,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-325</t>
+          <t>19-326</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -33027,7 +33027,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>17-313</t>
+          <t>17-314</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -33090,7 +33090,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>32-300</t>
+          <t>32-301</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -33153,7 +33153,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>22-069</t>
+          <t>22-070</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -33216,7 +33216,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>19-358</t>
+          <t>19-359</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -33279,7 +33279,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18-288</t>
+          <t>18-289</t>
         </is>
       </c>
       <c r="F38" t="n">

--- a/Teams/Chelsea_stats.xlsx
+++ b/Teams/Chelsea_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4203,12 +4203,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-142</t>
+          <t>23-145</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-322</t>
+          <t>22-325</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-026</t>
+          <t>22-029</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-245</t>
+          <t>26-248</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-066</t>
+          <t>24-069</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-129</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-277</t>
+          <t>23-280</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21-309</t>
+          <t>21-312</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25-015</t>
+          <t>25-018</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-364</t>
+          <t>25-002</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-097</t>
+          <t>24-100</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-181</t>
+          <t>27-184</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-106</t>
+          <t>25-109</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22-342</t>
+          <t>22-345</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-134</t>
+          <t>25-137</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-363</t>
+          <t>24-001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-326</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-199</t>
+          <t>26-202</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-238</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-078</t>
+          <t>24-081</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-048</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-079</t>
+          <t>19-082</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-065</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-155</t>
+          <t>17-158</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-142</t>
+          <t>23-145</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-322</t>
+          <t>22-325</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-026</t>
+          <t>22-029</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-245</t>
+          <t>26-248</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-066</t>
+          <t>24-069</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-129</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-277</t>
+          <t>23-280</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21-309</t>
+          <t>21-312</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25-015</t>
+          <t>25-018</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-364</t>
+          <t>25-002</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-097</t>
+          <t>24-100</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-181</t>
+          <t>27-184</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-106</t>
+          <t>25-109</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22-342</t>
+          <t>22-345</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-134</t>
+          <t>25-137</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-363</t>
+          <t>24-001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-326</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-199</t>
+          <t>26-202</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-238</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-078</t>
+          <t>24-081</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-048</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-079</t>
+          <t>19-082</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-065</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-155</t>
+          <t>17-158</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-329</t>
+          <t>19-332</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17-317</t>
+          <t>17-320</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -10206,7 +10206,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>32-304</t>
+          <t>32-307</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22-073</t>
+          <t>22-076</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19-362</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18-292</t>
+          <t>18-295</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-142</t>
+          <t>23-145</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10865,7 +10865,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-322</t>
+          <t>22-325</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-026</t>
+          <t>22-029</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-245</t>
+          <t>26-248</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-066</t>
+          <t>24-069</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-129</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-277</t>
+          <t>23-280</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21-309</t>
+          <t>21-312</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25-015</t>
+          <t>25-018</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-364</t>
+          <t>25-002</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-097</t>
+          <t>24-100</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-181</t>
+          <t>27-184</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-106</t>
+          <t>25-109</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22-342</t>
+          <t>22-345</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-134</t>
+          <t>25-137</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-363</t>
+          <t>24-001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-326</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-199</t>
+          <t>26-202</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-238</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-078</t>
+          <t>24-081</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-048</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-079</t>
+          <t>19-082</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-065</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-155</t>
+          <t>17-158</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-142</t>
+          <t>23-145</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13319,7 +13319,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-322</t>
+          <t>22-325</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-026</t>
+          <t>22-029</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-245</t>
+          <t>26-248</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-066</t>
+          <t>24-069</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-129</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-277</t>
+          <t>23-280</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21-309</t>
+          <t>21-312</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14055,7 +14055,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25-015</t>
+          <t>25-018</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-364</t>
+          <t>25-002</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-097</t>
+          <t>24-100</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-181</t>
+          <t>27-184</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14515,7 +14515,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-106</t>
+          <t>25-109</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14699,7 +14699,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22-342</t>
+          <t>22-345</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14791,7 +14791,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14975,7 +14975,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-134</t>
+          <t>25-137</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15067,7 +15067,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-363</t>
+          <t>24-001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -15159,7 +15159,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-326</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-199</t>
+          <t>26-202</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-238</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -15435,7 +15435,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-078</t>
+          <t>24-081</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -15527,7 +15527,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-048</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-079</t>
+          <t>19-082</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-065</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-155</t>
+          <t>17-158</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-142</t>
+          <t>23-145</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-322</t>
+          <t>22-325</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-026</t>
+          <t>22-029</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-245</t>
+          <t>26-248</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-066</t>
+          <t>24-069</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-129</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-277</t>
+          <t>23-280</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16694,7 +16694,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16762,7 +16762,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21-309</t>
+          <t>21-312</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16830,7 +16830,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25-015</t>
+          <t>25-018</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-364</t>
+          <t>25-002</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-097</t>
+          <t>24-100</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-181</t>
+          <t>27-184</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17102,7 +17102,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17170,7 +17170,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-106</t>
+          <t>25-109</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17238,7 +17238,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17306,7 +17306,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22-342</t>
+          <t>22-345</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17442,7 +17442,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17510,7 +17510,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-134</t>
+          <t>25-137</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17578,7 +17578,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-363</t>
+          <t>24-001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -17646,7 +17646,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-326</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -17714,7 +17714,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-199</t>
+          <t>26-202</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-238</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-078</t>
+          <t>24-081</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-048</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -17986,7 +17986,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-079</t>
+          <t>19-082</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-065</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -18122,7 +18122,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-155</t>
+          <t>17-158</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -18485,7 +18485,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-142</t>
+          <t>23-145</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18556,7 +18556,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-322</t>
+          <t>22-325</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-026</t>
+          <t>22-029</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18698,7 +18698,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-245</t>
+          <t>26-248</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -18769,7 +18769,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-066</t>
+          <t>24-069</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-129</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-277</t>
+          <t>23-280</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19053,7 +19053,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21-309</t>
+          <t>21-312</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19124,7 +19124,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25-015</t>
+          <t>25-018</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-364</t>
+          <t>25-002</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -19266,7 +19266,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-097</t>
+          <t>24-100</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-181</t>
+          <t>27-184</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19479,7 +19479,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-106</t>
+          <t>25-109</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19621,7 +19621,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22-342</t>
+          <t>22-345</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -19763,7 +19763,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -19834,7 +19834,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-134</t>
+          <t>25-137</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -19905,7 +19905,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-363</t>
+          <t>24-001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-326</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20047,7 +20047,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-199</t>
+          <t>26-202</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20118,7 +20118,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-238</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20189,7 +20189,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-078</t>
+          <t>24-081</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -20260,7 +20260,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-048</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-079</t>
+          <t>19-082</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -20402,7 +20402,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-065</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -20473,7 +20473,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-155</t>
+          <t>17-158</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-142</t>
+          <t>23-145</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -20913,7 +20913,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-322</t>
+          <t>22-325</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-026</t>
+          <t>22-029</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-245</t>
+          <t>26-248</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21126,7 +21126,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-066</t>
+          <t>24-069</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21197,7 +21197,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-129</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21268,7 +21268,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-277</t>
+          <t>23-280</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21339,7 +21339,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -21410,7 +21410,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21-309</t>
+          <t>21-312</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -21481,7 +21481,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25-015</t>
+          <t>25-018</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -21552,7 +21552,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-364</t>
+          <t>25-002</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-097</t>
+          <t>24-100</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -21694,7 +21694,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-181</t>
+          <t>27-184</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -21765,7 +21765,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-106</t>
+          <t>25-109</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -21907,7 +21907,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -21978,7 +21978,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22-342</t>
+          <t>22-345</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22047,7 +22047,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -22189,7 +22189,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-134</t>
+          <t>25-137</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-363</t>
+          <t>24-001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -22331,7 +22331,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-326</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22402,7 +22402,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-199</t>
+          <t>26-202</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -22473,7 +22473,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-238</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-078</t>
+          <t>24-081</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-048</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-079</t>
+          <t>19-082</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -22755,7 +22755,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-065</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -22824,7 +22824,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-155</t>
+          <t>17-158</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-142</t>
+          <t>23-145</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -23319,7 +23319,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-322</t>
+          <t>22-325</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-026</t>
+          <t>22-029</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -23497,7 +23497,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-245</t>
+          <t>26-248</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -23586,7 +23586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-066</t>
+          <t>24-069</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-129</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -23760,7 +23760,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-277</t>
+          <t>23-280</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -23849,7 +23849,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -23938,7 +23938,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21-309</t>
+          <t>21-312</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25-015</t>
+          <t>25-018</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -24116,7 +24116,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-364</t>
+          <t>25-002</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -24205,7 +24205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-097</t>
+          <t>24-100</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -24294,7 +24294,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-181</t>
+          <t>27-184</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -24472,7 +24472,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-106</t>
+          <t>25-109</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -24561,7 +24561,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -24650,7 +24650,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22-342</t>
+          <t>22-345</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -24735,7 +24735,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -24824,7 +24824,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -24913,7 +24913,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-134</t>
+          <t>25-137</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -25002,7 +25002,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-363</t>
+          <t>24-001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -25091,7 +25091,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-326</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -25180,7 +25180,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-199</t>
+          <t>26-202</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -25269,7 +25269,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-238</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -25358,7 +25358,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-078</t>
+          <t>24-081</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -25447,7 +25447,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-048</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -25536,7 +25536,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-079</t>
+          <t>19-082</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -25625,7 +25625,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-065</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -25710,7 +25710,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-155</t>
+          <t>17-158</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -26209,7 +26209,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-142</t>
+          <t>23-145</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -26316,7 +26316,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-322</t>
+          <t>22-325</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -26423,7 +26423,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-026</t>
+          <t>22-029</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-245</t>
+          <t>26-248</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -26637,7 +26637,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-066</t>
+          <t>24-069</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -26744,7 +26744,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-129</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -26851,7 +26851,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-277</t>
+          <t>23-280</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -26958,7 +26958,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23-014</t>
+          <t>23-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -27065,7 +27065,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21-309</t>
+          <t>21-312</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -27172,7 +27172,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25-015</t>
+          <t>25-018</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-364</t>
+          <t>25-002</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -27386,7 +27386,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-097</t>
+          <t>24-100</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -27493,7 +27493,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-181</t>
+          <t>27-184</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -27600,7 +27600,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -27707,7 +27707,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-106</t>
+          <t>25-109</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -27814,7 +27814,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21-077</t>
+          <t>21-080</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -27921,7 +27921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22-342</t>
+          <t>22-345</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27-013</t>
+          <t>27-016</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -28135,7 +28135,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -28242,7 +28242,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-134</t>
+          <t>25-137</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -28349,7 +28349,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-363</t>
+          <t>24-001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -28456,7 +28456,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-323</t>
+          <t>18-326</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -28563,7 +28563,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-199</t>
+          <t>26-202</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-238</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -28777,7 +28777,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-078</t>
+          <t>24-081</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -28884,7 +28884,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-048</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -28991,7 +28991,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-079</t>
+          <t>19-082</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -29098,7 +29098,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-065</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -29205,7 +29205,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-155</t>
+          <t>17-158</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -29312,7 +29312,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-329</t>
+          <t>19-332</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -29365,7 +29365,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17-317</t>
+          <t>17-320</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>32-304</t>
+          <t>32-307</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22-073</t>
+          <t>22-076</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -29524,7 +29524,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19-362</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -29577,7 +29577,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18-292</t>
+          <t>18-295</t>
         </is>
       </c>
       <c r="E38" t="n">
